--- a/REGULAR/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/AMBONAN, AVELINA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0D9973-9145-4990-A55A-C10163BE0649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D157E-A7D6-4DFD-8858-6BEB1680B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
   <si>
     <t>PERIOD</t>
   </si>
@@ -655,9 +655,6 @@
     <t>6/28,29</t>
   </si>
   <si>
-    <t>7/4,6</t>
-  </si>
-  <si>
     <t>8/14,16</t>
   </si>
   <si>
@@ -775,9 +772,6 @@
     <t>UT(2-0-16)</t>
   </si>
   <si>
-    <t>FL-(5-0-0)</t>
-  </si>
-  <si>
     <t>UT(4-5-47)</t>
   </si>
   <si>
@@ -989,6 +983,9 @@
   </si>
   <si>
     <t>NUTRITION</t>
+  </si>
+  <si>
+    <t>7/4,5,6</t>
   </si>
 </sst>
 </file>
@@ -3393,6 +3390,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K511" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3773,9 +3771,9 @@
   <dimension ref="A2:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A358" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B362" sqref="B362"/>
+      <pane ySplit="3576" topLeftCell="A295" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H299" sqref="H299:H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3819,7 +3817,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -3839,14 +3837,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
@@ -3938,7 +3936,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-19.426000000000016</v>
+        <v>-17.894000000000091</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3948,7 +3946,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.300000000000011</v>
+        <v>39.550000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4454,7 +4452,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H31" s="39"/>
+      <c r="H31" s="39">
+        <v>3</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
@@ -4522,7 +4522,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="39"/>
+      <c r="H34" s="39">
+        <v>1</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="11"/>
       <c r="K34" s="48">
@@ -4590,7 +4592,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>2</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
@@ -4911,7 +4915,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>0.437</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -4940,7 +4946,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="39">
+        <v>2</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
@@ -5164,7 +5172,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="39">
+        <v>1</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
       <c r="K63" s="48">
@@ -5974,7 +5984,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H98" s="39"/>
+      <c r="H98" s="39">
+        <v>5</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
       <c r="K98" s="50">
@@ -5996,7 +6008,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>3</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
@@ -6886,7 +6900,7 @@
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39">
-        <v>0.39600000000000002</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20">
@@ -7288,7 +7302,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H156" s="39"/>
+      <c r="H156" s="39">
+        <v>2</v>
+      </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
       <c r="K156" s="20" t="s">
@@ -7378,7 +7394,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H160" s="39"/>
+      <c r="H160" s="39">
+        <v>3</v>
+      </c>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
       <c r="K160" s="20" t="s">
@@ -7446,7 +7464,9 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H163" s="39"/>
+      <c r="H163" s="39">
+        <v>3</v>
+      </c>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="50">
@@ -7532,7 +7552,7 @@
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="39">
-        <v>1.9039999999999999</v>
+        <v>1.3330000000000002</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="20">
@@ -7786,25 +7806,25 @@
         <v>41091</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="C178" s="13">
         <v>1.25</v>
       </c>
       <c r="D178" s="39"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="F178" s="20"/>
       <c r="G178" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H178" s="39"/>
+      <c r="H178" s="39">
+        <v>3</v>
+      </c>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -7837,7 +7857,9 @@
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
-      <c r="D180" s="39"/>
+      <c r="D180" s="39">
+        <v>1.1020000000000001</v>
+      </c>
       <c r="E180" s="9"/>
       <c r="F180" s="20"/>
       <c r="G180" s="13">
@@ -7872,7 +7894,7 @@
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -7881,7 +7903,9 @@
         <v>202</v>
       </c>
       <c r="C182" s="13"/>
-      <c r="D182" s="39"/>
+      <c r="D182" s="39">
+        <v>1.119</v>
+      </c>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
       <c r="G182" s="13" t="str">
@@ -8088,7 +8112,7 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39">
@@ -8166,13 +8190,13 @@
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
       <c r="K194" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="39">
@@ -8212,7 +8236,7 @@
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
       <c r="K196" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -8252,13 +8276,13 @@
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
       <c r="K198" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="39">
@@ -8280,7 +8304,7 @@
         <v>41426</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -8342,7 +8366,7 @@
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -8370,7 +8394,7 @@
         <v>41518</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C204" s="13">
         <v>1.25</v>
@@ -8412,13 +8436,13 @@
       <c r="I205" s="9"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C206" s="13"/>
       <c r="D206" s="39">
@@ -8464,7 +8488,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39">
@@ -8486,7 +8510,7 @@
         <v>41609</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C209" s="13">
         <v>1.25</v>
@@ -8524,7 +8548,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -8578,7 +8602,7 @@
         <v>41671</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C213" s="13">
         <v>1.25</v>
@@ -8602,7 +8626,7 @@
         <v>41699</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C214" s="13">
         <v>1.25</v>
@@ -8644,13 +8668,13 @@
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
       <c r="K215" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39">
@@ -8672,7 +8696,7 @@
         <v>41760</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -8720,7 +8744,7 @@
         <v>41821</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C219" s="13">
         <v>1.25</v>
@@ -8744,7 +8768,7 @@
         <v>41852</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C220" s="13">
         <v>1.25</v>
@@ -8768,7 +8792,7 @@
         <v>41883</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C221" s="13">
         <v>1.25</v>
@@ -8792,7 +8816,7 @@
         <v>41913</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C222" s="13">
         <v>1.25</v>
@@ -8810,13 +8834,13 @@
       <c r="I222" s="9"/>
       <c r="J222" s="11"/>
       <c r="K222" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C223" s="13"/>
       <c r="D223" s="39">
@@ -8838,7 +8862,7 @@
         <v>41944</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C224" s="13">
         <v>1.25</v>
@@ -8861,15 +8885,11 @@
       <c r="A225" s="40">
         <v>41974</v>
       </c>
-      <c r="B225" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="B225" s="20"/>
       <c r="C225" s="13">
         <v>1.25</v>
       </c>
-      <c r="D225" s="39">
-        <v>2</v>
-      </c>
+      <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
       <c r="G225" s="13">
@@ -8884,7 +8904,7 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39">
@@ -8944,13 +8964,13 @@
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39">
@@ -8972,7 +8992,7 @@
         <v>42036</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -9036,7 +9056,7 @@
         <v>42125</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C233" s="13">
         <v>1.25</v>
@@ -9122,7 +9142,7 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39">
@@ -9144,7 +9164,7 @@
         <v>42248</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
@@ -9168,7 +9188,7 @@
         <v>42278</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -9192,7 +9212,7 @@
         <v>42309</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -9216,7 +9236,7 @@
         <v>42339</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="C241" s="13">
         <v>1.25</v>
@@ -9242,7 +9262,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
@@ -9261,7 +9281,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -9302,7 +9322,7 @@
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
       <c r="K244" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -9324,7 +9344,7 @@
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
       <c r="K245" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -9346,13 +9366,13 @@
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
       <c r="K246" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39">
@@ -9374,7 +9394,7 @@
         <v>42401</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C248" s="13">
         <v>1.25</v>
@@ -9398,7 +9418,7 @@
         <v>42430</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -9440,7 +9460,7 @@
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
       <c r="K250" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -9460,7 +9480,7 @@
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
@@ -9482,13 +9502,13 @@
       <c r="I252" s="9"/>
       <c r="J252" s="11"/>
       <c r="K252" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C253" s="13"/>
       <c r="D253" s="39">
@@ -9528,7 +9548,7 @@
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
       <c r="K254" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
@@ -9556,7 +9576,7 @@
         <v>42522</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -9600,7 +9620,7 @@
         <v>42583</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C258" s="13">
         <v>1.25</v>
@@ -9642,13 +9662,13 @@
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="39">
@@ -9688,13 +9708,13 @@
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C262" s="13"/>
       <c r="D262" s="39">
@@ -9716,7 +9736,7 @@
         <v>42675</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -9762,10 +9782,12 @@
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C265" s="13"/>
-      <c r="D265" s="39"/>
+      <c r="D265" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
       <c r="G265" s="13" t="str">
@@ -9779,7 +9801,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -9804,7 +9826,7 @@
         <v>42736</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C267" s="13">
         <v>1.25</v>
@@ -9820,7 +9842,7 @@
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -9906,7 +9928,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -9932,13 +9954,13 @@
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -9984,7 +10006,7 @@
         <v>42948</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C275" s="13">
         <v>1.25</v>
@@ -10002,13 +10024,13 @@
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
       <c r="K275" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C276" s="13"/>
       <c r="D276" s="39">
@@ -10042,17 +10064,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H277" s="39"/>
+      <c r="H277" s="39">
+        <v>2</v>
+      </c>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
       <c r="K277" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C278" s="13"/>
       <c r="D278" s="39">
@@ -10092,7 +10116,7 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -10114,7 +10138,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -10136,13 +10160,13 @@
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
       <c r="K281" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39">
@@ -10202,12 +10226,12 @@
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -10250,7 +10274,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -10272,7 +10296,7 @@
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
       <c r="K287" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -10280,7 +10304,7 @@
         <v>43132</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C288" s="13">
         <v>1.25</v>
@@ -10298,7 +10322,7 @@
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
       <c r="K288" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -10362,13 +10386,13 @@
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
       <c r="K291" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -10384,7 +10408,7 @@
       <c r="I292" s="9"/>
       <c r="J292" s="11"/>
       <c r="K292" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -10432,7 +10456,7 @@
         <v>43313</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C295" s="13">
         <v>1.25</v>
@@ -10450,7 +10474,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -10468,7 +10492,7 @@
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -10488,17 +10512,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H297" s="39"/>
+      <c r="H297" s="39">
+        <v>5</v>
+      </c>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -10520,7 +10546,7 @@
         <v>43374</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -10538,7 +10564,7 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -10546,7 +10572,7 @@
         <v>43405</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -10564,7 +10590,7 @@
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -10594,7 +10620,7 @@
     <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C302" s="13"/>
       <c r="D302" s="39">
@@ -10613,7 +10639,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -10650,7 +10676,7 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.3">
@@ -10676,7 +10702,7 @@
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
@@ -10722,7 +10748,7 @@
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
@@ -10770,7 +10796,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
@@ -10792,7 +10818,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
@@ -10820,7 +10846,7 @@
         <v>43647</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -10845,9 +10871,7 @@
       <c r="A313" s="40">
         <v>43678</v>
       </c>
-      <c r="B313" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="B313" s="20"/>
       <c r="C313" s="13">
         <v>1.25</v>
       </c>
@@ -10858,9 +10882,7 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H313" s="39">
-        <v>2</v>
-      </c>
+      <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
@@ -10884,7 +10906,7 @@
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.3">
@@ -10932,7 +10954,7 @@
         <v>43800</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -10950,7 +10972,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
@@ -10972,12 +10994,12 @@
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -11002,7 +11024,7 @@
         <v>43831</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -11018,7 +11040,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -11106,7 +11128,7 @@
         <v>43983</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -11122,7 +11144,7 @@
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.3">
@@ -11166,7 +11188,7 @@
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.3">
@@ -11232,7 +11254,7 @@
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -11292,7 +11314,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -11554,7 +11576,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -11816,7 +11838,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="47" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11881,13 +11903,15 @@
         <v>44986</v>
       </c>
       <c r="B363" s="20"/>
-      <c r="C363" s="13"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D363" s="39"/>
       <c r="E363" s="9"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H363" s="39"/>
       <c r="I363" s="9"/>
@@ -14604,7 +14628,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14670,18 +14694,16 @@
       <c r="B3" s="11">
         <v>2.25</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.5</v>
+        <v>0.437</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -14701,6 +14723,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>0.42099999999999999</v>
+      </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -14716,7 +14741,10 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="43"/>
+      <c r="G6" s="43">
+        <f>Table2[EQUIVALENT HOURS]-G5</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
       <c r="I6" s="62" t="s">
         <v>38</v>
       </c>

--- a/REGULAR/AMBONAN, AVELINA.xlsx
+++ b/REGULAR/AMBONAN, AVELINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7D157E-A7D6-4DFD-8858-6BEB1680B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="317">
   <si>
     <t>PERIOD</t>
   </si>
@@ -991,7 +990,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1854,7 +1853,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1897,7 +1896,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1961,7 +1960,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2020,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2086,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2150,7 +2149,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2247,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2306,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2371,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,7 +2414,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2489,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2675,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2741,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2799,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2865,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2921,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,7 +2996,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3039,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,7 +3105,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,7 +3161,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3259,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3322,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,26 +3388,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K511" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K511"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3420,13 +3419,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3435,14 +3434,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3746,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3756,7 +3755,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3764,34 +3763,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A295" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A358" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H299" sqref="H299:H300"/>
+      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3832,7 +3831,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3854,7 +3853,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3862,7 +3861,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3875,7 +3874,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3892,7 +3891,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3927,7 +3926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3936,7 +3935,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-17.894000000000091</v>
+        <v>-16.644000000000091</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3946,12 +3945,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.550000000000011</v>
+        <v>39.800000000000011</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3973,7 +3972,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>38718</v>
       </c>
@@ -3999,7 +3998,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>52</v>
@@ -4021,7 +4020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>53</v>
@@ -4041,7 +4040,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38749</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -4087,7 +4086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>56</v>
@@ -4107,7 +4106,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>38777</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>61</v>
@@ -4155,7 +4154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>62</v>
@@ -4177,7 +4176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38808</v>
       </c>
@@ -4201,7 +4200,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>38838</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>67</v>
@@ -4247,7 +4246,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>38869</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>66</v>
@@ -4295,7 +4294,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>68</v>
@@ -4315,7 +4314,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>38899</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>54</v>
@@ -4367,7 +4366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>69</v>
@@ -4387,7 +4386,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38930</v>
       </c>
@@ -4413,7 +4412,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>71</v>
@@ -4437,7 +4436,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>72</v>
@@ -4461,7 +4460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>73</v>
@@ -4483,7 +4482,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>38961</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>71</v>
@@ -4531,7 +4530,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -4553,7 +4552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>75</v>
@@ -4575,7 +4574,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>38991</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>54</v>
@@ -4623,7 +4622,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>78</v>
@@ -4643,7 +4642,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>39022</v>
       </c>
@@ -4667,7 +4666,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>39052</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>82</v>
@@ -4711,7 +4710,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
         <v>44</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>39083</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>71</v>
@@ -4783,7 +4782,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>55</v>
@@ -4803,7 +4802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>55</v>
@@ -4825,7 +4824,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>54</v>
@@ -4847,7 +4846,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>66</v>
@@ -4869,7 +4868,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -4891,7 +4890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>84</v>
@@ -4909,7 +4908,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>85</v>
@@ -4929,7 +4928,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>39114</v>
       </c>
@@ -4955,7 +4954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4977,7 +4976,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -4997,7 +4996,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39142</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>92</v>
@@ -5043,7 +5042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>93</v>
@@ -5065,7 +5064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>94</v>
@@ -5085,7 +5084,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>39173</v>
       </c>
@@ -5109,7 +5108,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39203</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -5155,7 +5154,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>39234</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -5205,7 +5204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>104</v>
@@ -5225,7 +5224,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39264</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>106</v>
@@ -5273,7 +5272,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>39295</v>
       </c>
@@ -5297,7 +5296,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39326</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>108</v>
@@ -5345,7 +5344,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>109</v>
@@ -5365,7 +5364,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>39356</v>
       </c>
@@ -5389,7 +5388,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39387</v>
       </c>
@@ -5413,7 +5412,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39417</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>114</v>
@@ -5461,7 +5460,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>116</v>
@@ -5483,7 +5482,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="47" t="s">
         <v>45</v>
       </c>
@@ -5505,7 +5504,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39448</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>39479</v>
       </c>
@@ -5553,7 +5552,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>39508</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5599,7 +5598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>120</v>
@@ -5619,7 +5618,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>39539</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>39569</v>
       </c>
@@ -5669,7 +5668,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>66</v>
@@ -5691,7 +5690,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>54</v>
@@ -5713,7 +5712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>66</v>
@@ -5735,7 +5734,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>39600</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>39630</v>
       </c>
@@ -5779,7 +5778,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>39661</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>126</v>
@@ -5825,7 +5824,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>39692</v>
       </c>
@@ -5849,7 +5848,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>39722</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>55</v>
@@ -5895,7 +5894,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>39753</v>
       </c>
@@ -5919,7 +5918,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>39783</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
         <v>46</v>
       </c>
@@ -5967,7 +5966,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>39814</v>
       </c>
@@ -5993,7 +5992,7 @@
         <v>39818</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>52</v>
@@ -6017,7 +6016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>132</v>
@@ -6037,7 +6036,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>39845</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>135</v>
@@ -6081,7 +6080,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>39873</v>
       </c>
@@ -6101,7 +6100,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>39904</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>54</v>
@@ -6147,7 +6146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>39934</v>
       </c>
@@ -6167,7 +6166,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>39965</v>
       </c>
@@ -6187,7 +6186,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>39995</v>
       </c>
@@ -6207,7 +6206,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>40026</v>
       </c>
@@ -6233,7 +6232,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>40057</v>
       </c>
@@ -6253,7 +6252,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40087</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>40118</v>
       </c>
@@ -6303,7 +6302,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>40148</v>
       </c>
@@ -6329,7 +6328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>47</v>
       </c>
@@ -6351,7 +6350,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>40179</v>
       </c>
@@ -6371,7 +6370,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40210</v>
       </c>
@@ -6391,7 +6390,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>40238</v>
       </c>
@@ -6417,7 +6416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>54</v>
@@ -6439,7 +6438,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>40269</v>
       </c>
@@ -6459,7 +6458,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>40299</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>136</v>
@@ -6505,7 +6504,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>54</v>
@@ -6527,7 +6526,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>40330</v>
       </c>
@@ -6547,7 +6546,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>40360</v>
       </c>
@@ -6571,7 +6570,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40391</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>54</v>
@@ -6617,7 +6616,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>52</v>
@@ -6639,7 +6638,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>66</v>
@@ -6661,7 +6660,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>150</v>
@@ -6681,7 +6680,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>40422</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>153</v>
@@ -6729,7 +6728,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>154</v>
@@ -6751,7 +6750,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>150</v>
@@ -6771,7 +6770,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>40452</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>105</v>
@@ -6823,7 +6822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>160</v>
@@ -6843,7 +6842,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>40483</v>
       </c>
@@ -6869,7 +6868,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>51</v>
@@ -6893,7 +6892,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>161</v>
@@ -6915,7 +6914,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>40513</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>164</v>
@@ -6961,7 +6960,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="47" t="s">
         <v>48</v>
       </c>
@@ -6983,7 +6982,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -7007,7 +7006,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>40575</v>
       </c>
@@ -7031,7 +7030,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>55</v>
@@ -7051,7 +7050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>168</v>
@@ -7071,7 +7070,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>40603</v>
       </c>
@@ -7095,7 +7094,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>171</v>
@@ -7117,7 +7116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>40634</v>
       </c>
@@ -7141,7 +7140,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>40664</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>40695</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>176</v>
@@ -7215,7 +7214,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>40725</v>
       </c>
@@ -7239,7 +7238,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>40756</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>40398</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>179</v>
@@ -7285,7 +7284,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>40787</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>180</v>
@@ -7331,7 +7330,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40817</v>
       </c>
@@ -7357,7 +7356,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>182</v>
@@ -7377,7 +7376,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40848</v>
       </c>
@@ -7403,7 +7402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>163</v>
@@ -7425,7 +7424,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>183</v>
@@ -7447,7 +7446,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40878</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>186</v>
@@ -7493,7 +7492,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>49</v>
       </c>
@@ -7515,7 +7514,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40909</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>190</v>
@@ -7567,7 +7566,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="50"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40940</v>
       </c>
@@ -7593,7 +7592,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>191</v>
@@ -7613,7 +7612,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40969</v>
       </c>
@@ -7637,7 +7636,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>41000</v>
       </c>
@@ -7663,7 +7662,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>194</v>
@@ -7683,7 +7682,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>41030</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>54</v>
@@ -7733,7 +7732,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>197</v>
@@ -7753,7 +7752,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>41061</v>
       </c>
@@ -7779,7 +7778,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>199</v>
@@ -7801,7 +7800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>41091</v>
       </c>
@@ -7827,7 +7826,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>200</v>
@@ -7847,7 +7846,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>41122</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>41153</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>202</v>
@@ -7917,7 +7916,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>41183</v>
       </c>
@@ -7947,7 +7946,7 @@
       </c>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>203</v>
@@ -7967,7 +7966,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>41214</v>
       </c>
@@ -7993,7 +7992,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>41244</v>
       </c>
@@ -8019,7 +8018,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>71</v>
@@ -8041,7 +8040,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>204</v>
@@ -8063,7 +8062,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="47" t="s">
         <v>50</v>
       </c>
@@ -8085,7 +8084,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>41275</v>
       </c>
@@ -8109,7 +8108,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>207</v>
@@ -8129,7 +8128,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41306</v>
       </c>
@@ -8149,7 +8148,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>41334</v>
       </c>
@@ -8169,7 +8168,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41365</v>
       </c>
@@ -8193,7 +8192,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>208</v>
@@ -8213,7 +8212,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41395</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>55</v>
@@ -8259,7 +8258,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>55</v>
@@ -8279,7 +8278,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>209</v>
@@ -8299,7 +8298,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41426</v>
       </c>
@@ -8323,7 +8322,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41456</v>
       </c>
@@ -8343,7 +8342,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>41487</v>
       </c>
@@ -8369,7 +8368,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>89</v>
@@ -8389,7 +8388,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41518</v>
       </c>
@@ -8413,7 +8412,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41548</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>212</v>
@@ -8459,7 +8458,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>41579</v>
       </c>
@@ -8485,7 +8484,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>213</v>
@@ -8505,7 +8504,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41609</v>
       </c>
@@ -8529,7 +8528,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>52</v>
@@ -8551,7 +8550,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="47" t="s">
         <v>187</v>
       </c>
@@ -8573,7 +8572,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41640</v>
       </c>
@@ -8597,7 +8596,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41671</v>
       </c>
@@ -8621,7 +8620,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41699</v>
       </c>
@@ -8645,7 +8644,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>41730</v>
       </c>
@@ -8671,7 +8670,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>223</v>
@@ -8691,7 +8690,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41760</v>
       </c>
@@ -8715,7 +8714,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41791</v>
       </c>
@@ -8739,7 +8738,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41821</v>
       </c>
@@ -8763,7 +8762,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41852</v>
       </c>
@@ -8787,7 +8786,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41883</v>
       </c>
@@ -8811,7 +8810,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41913</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>229</v>
@@ -8857,7 +8856,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41944</v>
       </c>
@@ -8881,7 +8880,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41974</v>
       </c>
@@ -8901,7 +8900,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>230</v>
@@ -8921,7 +8920,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="47" t="s">
         <v>188</v>
       </c>
@@ -8943,7 +8942,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>42005</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>237</v>
@@ -8987,7 +8986,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42036</v>
       </c>
@@ -9011,7 +9010,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42064</v>
       </c>
@@ -9031,7 +9030,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42095</v>
       </c>
@@ -9051,7 +9050,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42125</v>
       </c>
@@ -9075,7 +9074,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>42156</v>
       </c>
@@ -9095,7 +9094,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>42186</v>
       </c>
@@ -9115,7 +9114,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42217</v>
       </c>
@@ -9139,7 +9138,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>241</v>
@@ -9159,7 +9158,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42248</v>
       </c>
@@ -9183,7 +9182,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>42278</v>
       </c>
@@ -9207,7 +9206,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42309</v>
       </c>
@@ -9231,7 +9230,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>42339</v>
       </c>
@@ -9259,7 +9258,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>245</v>
@@ -9279,7 +9278,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="47" t="s">
         <v>236</v>
       </c>
@@ -9301,7 +9300,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>42370</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>54</v>
@@ -9347,7 +9346,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>54</v>
@@ -9369,7 +9368,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>249</v>
@@ -9389,7 +9388,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42401</v>
       </c>
@@ -9413,7 +9412,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42430</v>
       </c>
@@ -9437,7 +9436,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42461</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>55</v>
@@ -9483,7 +9482,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>54</v>
@@ -9505,7 +9504,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>254</v>
@@ -9525,7 +9524,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42491</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>167</v>
@@ -9571,7 +9570,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42522</v>
       </c>
@@ -9595,7 +9594,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42552</v>
       </c>
@@ -9615,7 +9614,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42583</v>
       </c>
@@ -9639,7 +9638,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42614</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>257</v>
@@ -9685,7 +9684,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42644</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>258</v>
@@ -9731,7 +9730,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42675</v>
       </c>
@@ -9755,7 +9754,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42705</v>
       </c>
@@ -9779,7 +9778,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>260</v>
@@ -9799,7 +9798,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="47" t="s">
         <v>235</v>
       </c>
@@ -9821,7 +9820,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42736</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42767</v>
       </c>
@@ -9865,7 +9864,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42795</v>
       </c>
@@ -9885,7 +9884,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42826</v>
       </c>
@@ -9905,7 +9904,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>42856</v>
       </c>
@@ -9931,7 +9930,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42887</v>
       </c>
@@ -9957,7 +9956,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>267</v>
@@ -9977,7 +9976,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42917</v>
       </c>
@@ -10001,7 +10000,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42948</v>
       </c>
@@ -10027,7 +10026,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>270</v>
@@ -10047,7 +10046,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42979</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>273</v>
@@ -10093,7 +10092,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43009</v>
       </c>
@@ -10119,7 +10118,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>92</v>
@@ -10141,7 +10140,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>52</v>
@@ -10163,7 +10162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>274</v>
@@ -10183,7 +10182,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>43040</v>
       </c>
@@ -10203,7 +10202,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43070</v>
       </c>
@@ -10229,7 +10228,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>234</v>
       </c>
@@ -10251,7 +10250,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43101</v>
       </c>
@@ -10277,7 +10276,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>131</v>
@@ -10299,7 +10298,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43132</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43160</v>
       </c>
@@ -10345,7 +10344,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43191</v>
       </c>
@@ -10365,7 +10364,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43221</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>283</v>
@@ -10411,7 +10410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43252</v>
       </c>
@@ -10431,7 +10430,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43282</v>
       </c>
@@ -10451,7 +10450,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43313</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -10495,7 +10494,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43344</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>289</v>
@@ -10541,7 +10540,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43374</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43405</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43435</v>
       </c>
@@ -10617,7 +10616,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>210</v>
@@ -10637,7 +10636,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
         <v>233</v>
       </c>
@@ -10655,7 +10654,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43466</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43497</v>
       </c>
@@ -10705,7 +10704,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43525</v>
       </c>
@@ -10725,7 +10724,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43556</v>
       </c>
@@ -10751,7 +10750,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>124</v>
@@ -10773,7 +10772,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43586</v>
       </c>
@@ -10799,7 +10798,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>152</v>
@@ -10821,7 +10820,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43617</v>
       </c>
@@ -10841,7 +10840,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43647</v>
       </c>
@@ -10867,7 +10866,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43678</v>
       </c>
@@ -10887,7 +10886,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43709</v>
       </c>
@@ -10909,7 +10908,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43739</v>
       </c>
@@ -10929,7 +10928,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43770</v>
       </c>
@@ -10949,7 +10948,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43800</v>
       </c>
@@ -10975,7 +10974,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>108</v>
@@ -10997,7 +10996,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>295</v>
       </c>
@@ -11019,7 +11018,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43831</v>
       </c>
@@ -11043,7 +11042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43862</v>
       </c>
@@ -11063,7 +11062,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43891</v>
       </c>
@@ -11083,7 +11082,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43922</v>
       </c>
@@ -11103,7 +11102,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43952</v>
       </c>
@@ -11123,7 +11122,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43983</v>
       </c>
@@ -11147,7 +11146,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>66</v>
@@ -11169,7 +11168,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>52</v>
@@ -11191,7 +11190,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>44013</v>
       </c>
@@ -11211,7 +11210,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>44044</v>
       </c>
@@ -11231,7 +11230,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>44075</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>44105</v>
       </c>
@@ -11274,7 +11273,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44136</v>
       </c>
@@ -11291,7 +11290,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44166</v>
       </c>
@@ -11312,7 +11311,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="47" t="s">
         <v>310</v>
       </c>
@@ -11330,7 +11329,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44197</v>
       </c>
@@ -11350,7 +11349,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44228</v>
       </c>
@@ -11370,7 +11369,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44256</v>
       </c>
@@ -11390,7 +11389,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44287</v>
       </c>
@@ -11410,7 +11409,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44317</v>
       </c>
@@ -11430,7 +11429,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44348</v>
       </c>
@@ -11450,7 +11449,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44378</v>
       </c>
@@ -11470,7 +11469,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44409</v>
       </c>
@@ -11490,7 +11489,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44440</v>
       </c>
@@ -11510,7 +11509,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44470</v>
       </c>
@@ -11530,7 +11529,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44501</v>
       </c>
@@ -11550,7 +11549,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44531</v>
       </c>
@@ -11574,7 +11573,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="47" t="s">
         <v>311</v>
       </c>
@@ -11592,7 +11591,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44562</v>
       </c>
@@ -11612,7 +11611,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44593</v>
       </c>
@@ -11632,7 +11631,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44621</v>
       </c>
@@ -11652,7 +11651,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44652</v>
       </c>
@@ -11672,7 +11671,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44682</v>
       </c>
@@ -11692,7 +11691,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44713</v>
       </c>
@@ -11712,7 +11711,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44743</v>
       </c>
@@ -11732,7 +11731,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44774</v>
       </c>
@@ -11752,7 +11751,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44805</v>
       </c>
@@ -11772,7 +11771,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44835</v>
       </c>
@@ -11792,7 +11791,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44866</v>
       </c>
@@ -11812,7 +11811,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44896</v>
       </c>
@@ -11836,7 +11835,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="47" t="s">
         <v>312</v>
       </c>
@@ -11854,7 +11853,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44927</v>
       </c>
@@ -11878,7 +11877,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44958</v>
       </c>
@@ -11898,7 +11897,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44986</v>
       </c>
@@ -11918,29 +11917,33 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>45017</v>
       </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>45047</v>
       </c>
-      <c r="B365" s="20"/>
+      <c r="B365" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
@@ -11949,12 +11952,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H365" s="39"/>
+      <c r="H365" s="39">
+        <v>1</v>
+      </c>
       <c r="I365" s="9"/>
       <c r="J365" s="11"/>
-      <c r="K365" s="20"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K365" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45078</v>
       </c>
@@ -11972,7 +11979,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>45108</v>
       </c>
@@ -11990,7 +11997,7 @@
       <c r="J367" s="12"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>45139</v>
       </c>
@@ -12008,7 +12015,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>45170</v>
       </c>
@@ -12026,7 +12033,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>45200</v>
       </c>
@@ -12044,7 +12051,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>45231</v>
       </c>
@@ -12062,7 +12069,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>45261</v>
       </c>
@@ -12080,7 +12087,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>45292</v>
       </c>
@@ -12098,7 +12105,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>45323</v>
       </c>
@@ -12116,7 +12123,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>45352</v>
       </c>
@@ -12134,7 +12141,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>45383</v>
       </c>
@@ -12152,7 +12159,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>45413</v>
       </c>
@@ -12170,7 +12177,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45444</v>
       </c>
@@ -12188,7 +12195,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45474</v>
       </c>
@@ -12206,7 +12213,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45505</v>
       </c>
@@ -12224,7 +12231,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45536</v>
       </c>
@@ -12242,7 +12249,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45566</v>
       </c>
@@ -12260,7 +12267,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45597</v>
       </c>
@@ -12278,7 +12285,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>45627</v>
       </c>
@@ -12296,7 +12303,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45658</v>
       </c>
@@ -12314,7 +12321,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>45689</v>
       </c>
@@ -12332,7 +12339,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>45717</v>
       </c>
@@ -12350,7 +12357,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>45748</v>
       </c>
@@ -12368,7 +12375,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>45778</v>
       </c>
@@ -12386,7 +12393,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>45809</v>
       </c>
@@ -12404,7 +12411,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45839</v>
       </c>
@@ -12422,7 +12429,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45870</v>
       </c>
@@ -12440,7 +12447,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45901</v>
       </c>
@@ -12458,7 +12465,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45931</v>
       </c>
@@ -12476,7 +12483,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45962</v>
       </c>
@@ -12494,7 +12501,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45992</v>
       </c>
@@ -12512,7 +12519,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>46023</v>
       </c>
@@ -12530,7 +12537,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>46054</v>
       </c>
@@ -12548,7 +12555,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>46082</v>
       </c>
@@ -12566,7 +12573,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>46113</v>
       </c>
@@ -12584,7 +12591,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>46143</v>
       </c>
@@ -12602,7 +12609,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>46174</v>
       </c>
@@ -12620,7 +12627,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>46204</v>
       </c>
@@ -12638,7 +12645,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>46235</v>
       </c>
@@ -12656,7 +12663,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>46266</v>
       </c>
@@ -12674,7 +12681,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>46296</v>
       </c>
@@ -12692,7 +12699,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>46327</v>
       </c>
@@ -12710,7 +12717,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>46357</v>
       </c>
@@ -12728,7 +12735,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>46388</v>
       </c>
@@ -12746,7 +12753,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>46419</v>
       </c>
@@ -12764,7 +12771,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>46447</v>
       </c>
@@ -12782,7 +12789,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>46478</v>
       </c>
@@ -12800,7 +12807,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>46508</v>
       </c>
@@ -12818,7 +12825,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>46539</v>
       </c>
@@ -12836,7 +12843,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>46569</v>
       </c>
@@ -12854,7 +12861,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>46600</v>
       </c>
@@ -12872,7 +12879,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>46631</v>
       </c>
@@ -12890,7 +12897,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>46661</v>
       </c>
@@ -12908,7 +12915,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>46692</v>
       </c>
@@ -12926,7 +12933,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>46722</v>
       </c>
@@ -12944,7 +12951,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>46753</v>
       </c>
@@ -12962,7 +12969,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>46784</v>
       </c>
@@ -12980,7 +12987,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>46813</v>
       </c>
@@ -12998,7 +13005,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>46844</v>
       </c>
@@ -13016,7 +13023,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>46874</v>
       </c>
@@ -13034,7 +13041,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>46905</v>
       </c>
@@ -13052,7 +13059,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>46935</v>
       </c>
@@ -13070,7 +13077,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46966</v>
       </c>
@@ -13088,7 +13095,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46997</v>
       </c>
@@ -13106,7 +13113,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>47027</v>
       </c>
@@ -13124,7 +13131,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>47058</v>
       </c>
@@ -13142,7 +13149,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>47088</v>
       </c>
@@ -13160,7 +13167,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>47119</v>
       </c>
@@ -13178,7 +13185,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>47150</v>
       </c>
@@ -13196,7 +13203,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>47178</v>
       </c>
@@ -13214,7 +13221,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>47209</v>
       </c>
@@ -13232,7 +13239,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>47239</v>
       </c>
@@ -13250,7 +13257,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>47270</v>
       </c>
@@ -13268,7 +13275,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>47300</v>
       </c>
@@ -13286,7 +13293,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>47331</v>
       </c>
@@ -13304,7 +13311,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>47362</v>
       </c>
@@ -13322,7 +13329,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>47392</v>
       </c>
@@ -13340,7 +13347,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>47423</v>
       </c>
@@ -13358,7 +13365,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>47453</v>
       </c>
@@ -13376,7 +13383,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>47484</v>
       </c>
@@ -13394,7 +13401,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>47515</v>
       </c>
@@ -13412,7 +13419,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>47543</v>
       </c>
@@ -13430,7 +13437,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>47574</v>
       </c>
@@ -13448,7 +13455,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>47604</v>
       </c>
@@ -13466,7 +13473,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>47635</v>
       </c>
@@ -13484,7 +13491,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>47665</v>
       </c>
@@ -13502,7 +13509,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>47696</v>
       </c>
@@ -13520,7 +13527,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>47727</v>
       </c>
@@ -13538,7 +13545,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>47757</v>
       </c>
@@ -13556,7 +13563,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>47788</v>
       </c>
@@ -13574,7 +13581,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>47818</v>
       </c>
@@ -13592,7 +13599,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>47849</v>
       </c>
@@ -13610,7 +13617,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>47880</v>
       </c>
@@ -13628,7 +13635,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>47908</v>
       </c>
@@ -13646,7 +13653,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>47939</v>
       </c>
@@ -13664,7 +13671,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>47969</v>
       </c>
@@ -13682,7 +13689,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>48000</v>
       </c>
@@ -13700,7 +13707,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>48030</v>
       </c>
@@ -13718,7 +13725,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>48061</v>
       </c>
@@ -13736,7 +13743,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>48092</v>
       </c>
@@ -13754,7 +13761,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>48122</v>
       </c>
@@ -13772,7 +13779,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>48153</v>
       </c>
@@ -13790,7 +13797,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>48183</v>
       </c>
@@ -13808,7 +13815,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>48214</v>
       </c>
@@ -13826,7 +13833,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>48245</v>
       </c>
@@ -13844,7 +13851,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>48274</v>
       </c>
@@ -13862,7 +13869,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>48305</v>
       </c>
@@ -13880,7 +13887,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>48335</v>
       </c>
@@ -13898,7 +13905,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>48366</v>
       </c>
@@ -13916,7 +13923,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>48396</v>
       </c>
@@ -13934,7 +13941,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>48427</v>
       </c>
@@ -13952,7 +13959,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>48458</v>
       </c>
@@ -13970,7 +13977,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>48488</v>
       </c>
@@ -13988,7 +13995,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>48519</v>
       </c>
@@ -14006,7 +14013,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>48549</v>
       </c>
@@ -14024,7 +14031,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>48580</v>
       </c>
@@ -14042,7 +14049,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>48611</v>
       </c>
@@ -14060,7 +14067,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>48639</v>
       </c>
@@ -14078,7 +14085,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>48670</v>
       </c>
@@ -14096,7 +14103,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>48700</v>
       </c>
@@ -14114,7 +14121,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>48731</v>
       </c>
@@ -14132,7 +14139,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>48761</v>
       </c>
@@ -14150,7 +14157,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>48792</v>
       </c>
@@ -14168,7 +14175,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>48823</v>
       </c>
@@ -14186,7 +14193,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>48853</v>
       </c>
@@ -14204,7 +14211,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>48884</v>
       </c>
@@ -14222,7 +14229,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>48914</v>
       </c>
@@ -14240,7 +14247,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>48945</v>
       </c>
@@ -14258,7 +14265,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>48976</v>
       </c>
@@ -14276,7 +14283,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>49004</v>
       </c>
@@ -14294,7 +14301,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>49035</v>
       </c>
@@ -14312,7 +14319,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>49065</v>
       </c>
@@ -14330,7 +14337,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>49096</v>
       </c>
@@ -14348,7 +14355,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>49126</v>
       </c>
@@ -14366,7 +14373,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>49157</v>
       </c>
@@ -14384,7 +14391,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>49188</v>
       </c>
@@ -14402,7 +14409,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>49218</v>
       </c>
@@ -14420,7 +14427,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>49249</v>
       </c>
@@ -14438,7 +14445,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>49279</v>
       </c>
@@ -14456,7 +14463,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>49310</v>
       </c>
@@ -14474,7 +14481,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>49341</v>
       </c>
@@ -14492,7 +14499,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>49369</v>
       </c>
@@ -14510,7 +14517,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>49400</v>
       </c>
@@ -14528,7 +14535,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>49430</v>
       </c>
@@ -14546,7 +14553,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>49461</v>
       </c>
@@ -14564,7 +14571,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>49491</v>
       </c>
@@ -14597,10 +14604,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14623,7 +14630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14631,21 +14638,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -14658,7 +14665,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14687,7 +14694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.95799999999999996</v>
       </c>
@@ -14715,20 +14722,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5">
         <v>0.42099999999999999</v>
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14752,7 +14759,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14779,7 +14786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14805,7 +14812,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14831,7 +14838,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14857,7 +14864,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14883,7 +14890,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14909,7 +14916,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14935,7 +14942,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14961,7 +14968,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14981,7 +14988,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15001,7 +15008,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15021,7 +15028,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15042,7 +15049,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15063,7 +15070,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15084,7 +15091,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15105,7 +15112,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15126,7 +15133,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15147,7 +15154,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15168,7 +15175,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15189,7 +15196,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15210,7 +15217,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15231,7 +15238,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15252,7 +15259,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15273,7 +15280,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15294,7 +15301,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15315,7 +15322,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15336,7 +15343,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15357,7 +15364,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15378,7 +15385,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15399,7 +15406,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15420,7 +15427,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15441,7 +15448,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15450,7 +15457,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15459,7 +15466,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15468,7 +15475,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15477,7 +15484,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15486,7 +15493,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15495,7 +15502,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15504,7 +15511,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15513,7 +15520,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15522,7 +15529,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15531,7 +15538,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15540,7 +15547,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15549,7 +15556,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15558,7 +15565,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15567,7 +15574,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15576,7 +15583,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15585,7 +15592,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15594,7 +15601,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15603,7 +15610,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15612,7 +15619,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15621,7 +15628,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15630,7 +15637,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15639,7 +15646,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15648,7 +15655,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15657,7 +15664,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15666,7 +15673,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15675,7 +15682,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15684,7 +15691,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15693,7 +15700,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15702,7 +15709,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
